--- a/WebVars.xlsx
+++ b/WebVars.xlsx
@@ -326,109 +326,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Выводит текстовый строчный файл hex дампа в байтовом виде с запросом к web.cgi. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- начальный адрес, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> кол-во, кратное 32. Числа в dec или hex формате. </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Пример: web.cgi?hexdmpb0x40000000=0x100 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Выводит текстовый файл в dword виде с запросом к web.cgi. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- начальный адрес, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> кол-во, кратное 32. Числа в dec или hex формате. </t>
-    </r>
   </si>
   <si>
     <t>Пример: web.cgi?hexdmpd0x40000000=0x100</t>
@@ -6524,6 +6422,108 @@
   </si>
   <si>
     <t>Таймаут до закрытия соединения Modbus TCP если нет принятых данных, в секундах.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выводит текстовый файл в dword виде с запросом к web.cgi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- начальный адрес, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> кол-во, кратное 16. Числа в dec или hex формате. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выводит текстовый строчный файл hex дампа в байтовом виде с запросом к web.cgi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- начальный адрес, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> кол-во, кратное 16. Числа в dec или hex формате. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6799,6 +6799,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6811,18 +6826,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6832,13 +6835,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7156,45 +7156,45 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -7219,11 +7219,11 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
@@ -7253,2313 +7253,2397 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="5" t="s">
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="4" t="s">
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15" t="s">
+    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="C44" s="23"/>
+      <c r="D44" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+    <row r="45" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="4" t="s">
+    </row>
+    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="C48" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
+      <c r="D48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="15" t="s">
+    </row>
+    <row r="49" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="D53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="15" t="s">
+    </row>
+    <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
+      <c r="D57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="15" t="s">
+    </row>
+    <row r="58" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+      <c r="D60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="15" t="s">
+    </row>
+    <row r="61" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="1" t="s">
+    </row>
+    <row r="62" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
+      <c r="B64" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="3"/>
       <c r="C72" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="3"/>
       <c r="C73" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="s">
+      <c r="D76" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="15" t="s">
+    </row>
+    <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="1" t="s">
+    </row>
+    <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="14" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="5" t="s">
+      <c r="C78" s="14" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="15" t="s">
+      <c r="D78" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="15" t="s">
+    </row>
+    <row r="79" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="3"/>
       <c r="C80" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="3"/>
       <c r="C81" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
+      <c r="B97" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="17"/>
+      <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="4" t="s">
+    </row>
+    <row r="111" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="13"/>
+      <c r="B114" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="17"/>
+      <c r="D114" s="18"/>
     </row>
     <row r="115" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
+      <c r="B117" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" s="17"/>
+      <c r="D117" s="18"/>
     </row>
     <row r="118" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="1" t="s">
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="14" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="9" t="s">
+      <c r="C122" s="14"/>
+      <c r="D122" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="15" t="s">
+    <row r="123" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="1" t="s">
+      <c r="C124" s="14"/>
+      <c r="D124" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="15" t="s">
+    <row r="125" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="1" t="s">
+      <c r="C126" s="14"/>
+      <c r="D126" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
     <row r="127" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
       <c r="D127" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
       <c r="C128" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="3"/>
       <c r="C129" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C130" s="12"/>
-      <c r="D130" s="13"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="18"/>
     </row>
     <row r="131" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C135" s="20"/>
-      <c r="D135" s="21"/>
+      <c r="B135" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="21"/>
+      <c r="D135" s="22"/>
     </row>
     <row r="136" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="138" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="3"/>
       <c r="C139" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
       <c r="C140" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="3"/>
       <c r="C141" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C142" s="12"/>
-      <c r="D142" s="13"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="18"/>
     </row>
     <row r="143" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="17"/>
+      <c r="D144" s="18"/>
+    </row>
+    <row r="145" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B145" s="14" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="11" t="s">
+      <c r="C145" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C144" s="12"/>
-      <c r="D144" s="13"/>
-    </row>
-    <row r="145" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B145" s="15" t="s">
+      <c r="D145" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C145" s="15" t="s">
+    </row>
+    <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D145" s="1" t="s">
+    </row>
+    <row r="147" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B147" s="14" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="7" t="s">
+      <c r="C147" s="14" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B147" s="15" t="s">
+      <c r="D147" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="15" t="s">
+    </row>
+    <row r="148" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B149" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="C149" s="14" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B149" s="15" t="s">
+      <c r="D149" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C149" s="15" t="s">
+    </row>
+    <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="15"/>
-      <c r="C151" s="15" t="s">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D151" s="1" t="s">
+    </row>
+    <row r="153" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="10" t="s">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="9" t="s">
+      <c r="D154" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="15"/>
-      <c r="C154" s="15" t="s">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="C157" s="14"/>
+      <c r="D157" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="16"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="15" t="s">
+    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C157" s="15"/>
-      <c r="D157" s="1" t="s">
+      <c r="C159" s="14" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="15" t="s">
+      <c r="D159" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C159" s="15" t="s">
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D159" s="1" t="s">
+    </row>
+    <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="14"/>
+      <c r="C162" s="14" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="14"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="10" t="s">
+      <c r="D162" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="15"/>
-      <c r="C162" s="15" t="s">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D162" s="1" t="s">
+    </row>
+    <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="10" t="s">
+      <c r="D165" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="16"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="15"/>
-      <c r="C165" s="15" t="s">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D165" s="1" t="s">
+    </row>
+    <row r="167" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="14" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="10" t="s">
+      <c r="C168" s="14" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="16"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="15" t="s">
+      <c r="D168" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C168" s="15" t="s">
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D168" s="1" t="s">
+    </row>
+    <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="15"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="14"/>
+      <c r="C171" s="14" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="10" t="s">
+      <c r="D171" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="15"/>
-      <c r="C171" s="15" t="s">
+    <row r="172" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="16"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="15"/>
-      <c r="C173" s="15" t="s">
+    <row r="174" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="15"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="C175" s="14" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="174" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="16"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="15" t="s">
+      <c r="D175" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C175" s="15" t="s">
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D175" s="1" t="s">
+    </row>
+    <row r="177" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="14" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="10" t="s">
+      <c r="C178" s="14"/>
+      <c r="D178" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="177" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="15" t="s">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C178" s="15"/>
-      <c r="D178" s="1" t="s">
+    </row>
+    <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="14" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="14"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="10" t="s">
+      <c r="C181" s="14" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="16"/>
-      <c r="C180" s="16"/>
-      <c r="D180" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="15" t="s">
+      <c r="D181" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C181" s="15" t="s">
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D181" s="1" t="s">
+    </row>
+    <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="14" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="10" t="s">
+      <c r="C184" s="14" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="16"/>
-      <c r="C183" s="16"/>
-      <c r="D183" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="15" t="s">
+      <c r="D184" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C184" s="15" t="s">
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="C187" s="14" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="14"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="16"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="15" t="s">
+      <c r="D187" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C187" s="15" t="s">
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="14"/>
+      <c r="C190" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="16"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="15"/>
-      <c r="C190" s="15" t="s">
+    <row r="191" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="14"/>
+      <c r="C192" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="16"/>
-      <c r="C191" s="16"/>
-      <c r="D191" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="15"/>
-      <c r="C192" s="15" t="s">
+    <row r="193" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="15"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="14"/>
+      <c r="C194" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="16"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="15"/>
-      <c r="C194" s="15" t="s">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D194" s="1" t="s">
+    </row>
+    <row r="196" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="15"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="14"/>
+      <c r="C197" s="14" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="14"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="10" t="s">
+      <c r="D197" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="196" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="16"/>
-      <c r="C196" s="16"/>
-      <c r="D196" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="15"/>
-      <c r="C197" s="15" t="s">
+    <row r="198" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="15"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="14"/>
+      <c r="C199" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="16"/>
-      <c r="C198" s="16"/>
-      <c r="D198" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="15"/>
-      <c r="C199" s="15" t="s">
+    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="15"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="16"/>
-      <c r="C200" s="16"/>
-      <c r="D200" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C201" s="12"/>
-      <c r="D201" s="13"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="18"/>
     </row>
     <row r="202" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C202" s="4" t="s">
+    </row>
+    <row r="203" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B203" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="C203" s="14" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="203" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B203" s="15" t="s">
+      <c r="D203" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="15"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B205" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="C205" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="16"/>
-      <c r="C204" s="16"/>
-      <c r="D204" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B205" s="15" t="s">
+      <c r="D205" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C205" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="206" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="16"/>
-      <c r="C206" s="16"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15"/>
       <c r="D206" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="207" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="209" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D209" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C209" s="4" t="s">
+    </row>
+    <row r="210" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B210" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="C210" s="14" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="210" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B210" s="15" t="s">
+      <c r="D210" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="15"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B212" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="C210" s="15" t="s">
+      <c r="C212" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="16"/>
-      <c r="C211" s="16"/>
-      <c r="D211" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B212" s="15" t="s">
+      <c r="D212" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C212" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>371</v>
-      </c>
     </row>
     <row r="213" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="16"/>
-      <c r="C213" s="16"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="15"/>
       <c r="D213" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="214" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D214" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="215" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="216" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C216" s="4" t="s">
+    </row>
+    <row r="217" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B217" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="C217" s="14" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="217" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B217" s="15" t="s">
+      <c r="D217" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="15"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B219" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C217" s="15" t="s">
+      <c r="C219" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="16"/>
-      <c r="C218" s="16"/>
-      <c r="D218" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B219" s="15" t="s">
+      <c r="D219" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C219" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="220" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="16"/>
-      <c r="C220" s="16"/>
+      <c r="B220" s="15"/>
+      <c r="C220" s="15"/>
       <c r="D220" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="221" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="222" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D222" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C222" s="4" t="s">
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="C223" s="14" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B223" s="15" t="s">
+      <c r="D223" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C223" s="15" t="s">
+    </row>
+    <row r="224" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="15"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="16"/>
-      <c r="C224" s="16"/>
-      <c r="D224" s="5" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="225" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D225" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="226" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D226" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="227" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D228" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="229" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D229" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D230" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C230" s="4" t="s">
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" s="14"/>
+      <c r="C231" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="D231" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B231" s="15"/>
-      <c r="C231" s="15" t="s">
+    <row r="232" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="15"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D231" s="1" t="s">
+    </row>
+    <row r="233" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="16" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="232" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="16"/>
-      <c r="C232" s="16"/>
-      <c r="D232" s="5" t="s">
+      <c r="C233" s="17"/>
+      <c r="D233" s="18"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="14" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="233" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="11" t="s">
+      <c r="C234" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C233" s="12"/>
-      <c r="D233" s="13"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B234" s="15" t="s">
+      <c r="D234" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C234" s="15" t="s">
+    </row>
+    <row r="235" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="15"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D234" s="1" t="s">
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="14" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="235" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="16"/>
-      <c r="C235" s="16"/>
-      <c r="D235" s="9" t="s">
+      <c r="C236" s="14" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B236" s="15" t="s">
+      <c r="D236" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C236" s="15" t="s">
+    </row>
+    <row r="237" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="15"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D236" s="1" t="s">
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" s="14" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="237" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="16"/>
-      <c r="C237" s="16"/>
-      <c r="D237" s="9" t="s">
+      <c r="C238" s="14" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B238" s="15" t="s">
+      <c r="D238" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C238" s="15" t="s">
+    </row>
+    <row r="239" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="15"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="D238" s="1" t="s">
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="14" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="239" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="16"/>
-      <c r="C239" s="16"/>
-      <c r="D239" s="9" t="s">
+      <c r="C240" s="14" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B240" s="15" t="s">
+      <c r="D240" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C240" s="15" t="s">
+    </row>
+    <row r="241" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="15"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D240" s="1" t="s">
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="14" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="16"/>
-      <c r="C241" s="16"/>
-      <c r="D241" s="9" t="s">
+      <c r="C242" s="14" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B242" s="15" t="s">
+      <c r="D242" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C242" s="15" t="s">
+    </row>
+    <row r="243" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="15"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="D242" s="1" t="s">
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="14" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="16"/>
-      <c r="C243" s="16"/>
-      <c r="D243" s="9" t="s">
+      <c r="C244" s="14" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B244" s="15" t="s">
+      <c r="D244" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C244" s="15" t="s">
+    </row>
+    <row r="245" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="15"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="C246" s="14" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="16"/>
-      <c r="C245" s="16"/>
-      <c r="D245" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B246" s="15" t="s">
+      <c r="D246" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C246" s="15" t="s">
+    </row>
+    <row r="247" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="15"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="C248" s="14" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="247" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="16"/>
-      <c r="C247" s="16"/>
-      <c r="D247" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B248" s="15" t="s">
+      <c r="D248" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C248" s="15" t="s">
+    </row>
+    <row r="249" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="15"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="C250" s="14" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="249" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="16"/>
-      <c r="C249" s="16"/>
-      <c r="D249" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="15" t="s">
+      <c r="D250" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C250" s="15" t="s">
+    </row>
+    <row r="251" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="15"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="C252" s="14" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="251" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="16"/>
-      <c r="C251" s="16"/>
-      <c r="D251" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="15" t="s">
+      <c r="D252" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C252" s="15" t="s">
+    </row>
+    <row r="253" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="15"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="C254" s="14" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="253" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="16"/>
-      <c r="C253" s="16"/>
-      <c r="D253" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B254" s="15" t="s">
+      <c r="D254" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C254" s="15" t="s">
+    </row>
+    <row r="255" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="15"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="C256" s="14" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="255" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="16"/>
-      <c r="C255" s="16"/>
-      <c r="D255" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B256" s="15" t="s">
+      <c r="D256" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C256" s="15" t="s">
+    </row>
+    <row r="257" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="15"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="C258" s="14" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="257" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="16"/>
-      <c r="C257" s="16"/>
-      <c r="D257" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="15" t="s">
+      <c r="D258" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C258" s="15" t="s">
+    </row>
+    <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="15"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="C260" s="14" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="16"/>
-      <c r="C259" s="16"/>
-      <c r="D259" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="15" t="s">
+      <c r="D260" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C260" s="15" t="s">
+    </row>
+    <row r="261" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="15"/>
+      <c r="C261" s="15"/>
+      <c r="D261" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="14"/>
+      <c r="C262" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="16"/>
-      <c r="C261" s="16"/>
-      <c r="D261" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="15"/>
-      <c r="C262" s="15" t="s">
+    <row r="263" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="15"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D262" s="1" t="s">
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="14"/>
+      <c r="C264" s="14" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="263" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="16"/>
-      <c r="C263" s="16"/>
-      <c r="D263" s="5" t="s">
+      <c r="D264" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B264" s="15"/>
-      <c r="C264" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
     <row r="265" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="16"/>
-      <c r="C265" s="16"/>
+      <c r="B265" s="15"/>
+      <c r="C265" s="15"/>
       <c r="D265" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B266" s="22"/>
+      <c r="B266" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
     <mergeCell ref="B238:B239"/>
     <mergeCell ref="C238:C239"/>
     <mergeCell ref="B240:B241"/>
@@ -9573,112 +9657,28 @@
     <mergeCell ref="C234:C235"/>
     <mergeCell ref="B236:B237"/>
     <mergeCell ref="C236:C237"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="B178:B180"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WebVars.xlsx
+++ b/WebVars.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="WebVars" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">WebVars!$B$2:$D$265</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -2929,13 +2932,2805 @@
   </si>
   <si>
     <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
+      <t>Вывод входного состояния GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0 или 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чтение/установка для выходного состояния GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =0 - вывод “0”, =1 - вывод “1”, =3 - инверсия.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чтение/установка в “0” выхода GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 0 или 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чтение/установка в “1”  выхода GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 0 или 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чтение/установка направления работы GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =1 - выход, =0 - вход.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Установка направления работы GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> как выхода</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Установка направления работы GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> как входа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чтение/установка функции GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 0..5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чтение pull битов у GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =0 - нет, =2 - pullup, =1 pulldown (не работает)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чтение/установка “открытий коллектор” GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =0 - откл, =1 вкл, =3 - переключить.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чтение/установка pullup у GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Чтение/установка pulldown у GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(не работает в чипе).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Установить функцию GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> как i/o port.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Установить функцию GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в состояние по умолчанию для SDK.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Подключить вывод GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>к sigma-delta 312кГц</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>duty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – параметр duty от 0 до 255. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Отключить вывод GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>от sigma-delta 312кГц</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio_sgn=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Задать новый параметр duty для</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sigma-delta 312кГц</t>
+    </r>
+  </si>
+  <si>
+    <t>Конфигурация</t>
+  </si>
+  <si>
+    <t>cfg_web_port</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_web_port=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Локальный port Web сервера. =0 – отключен</t>
+  </si>
+  <si>
+    <t>cfg_web_twrec</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_web_twrec=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>cfg_web_twcls</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_web_twcls=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Таймаут до закрытия соединения Web сервера после последних принятых данных, в секундах.</t>
+  </si>
+  <si>
+    <t>cfg_web_twd</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_web_twd=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Разрешение удаления TIME_WAIT pcb</t>
+  </si>
+  <si>
+    <t>cfg_tcp_tcrec</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_tcp_tcrec=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Пауза до следующего запроса для TCP клиента, в микросекундах.</t>
+  </si>
+  <si>
+    <t>cfg_tcp_port</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_tcp_port=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Port TCP2UART. =0 – отключен</t>
+  </si>
+  <si>
+    <t>cfg_tcp_twrec</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_tcp_twrec=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>cfg_tcp_twcls</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_tcp_twcls=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Таймаут до закрытия соединения TCP2UART после последних принятых данных, в секундах.</t>
+  </si>
+  <si>
+    <t>cfg_tcp_reop</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_tcp_reop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Разрешено открытие новым соединением TCP2UART с закрытием старого. =1 да, =0 нет</t>
+  </si>
+  <si>
+    <t>cfg_tcp_url</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_tcp_url=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+  </si>
+  <si>
+    <t>Задание внешнего ip. Если поле пусто или “none”, или “127.0.0.1”, или некорректен ввод ip  – то TCP2UART является сервером. Иначе – клиентом.</t>
+  </si>
+  <si>
+    <t>cfg_mdb_port</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_mdb_port=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Port Modbus TCP. =0 – отключен</t>
+  </si>
+  <si>
+    <t>cfg_mdb_twrec</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_mdb_twrec=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>cfg_mdb_twcls</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_mdb_twcls=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Таймаут до закрытия соединения Modbus TCP после последних принятых данных, в секундах.</t>
+  </si>
+  <si>
+    <t>cfg_mdb_reop</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_mdb_reop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Разрешено открытие новым соединением Modbus TCP с закрытием старого. =1 да, =0 нет</t>
+  </si>
+  <si>
+    <t>cfg_udp</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_udp=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Локальный port тестового UDP. =0 – отключен</t>
+  </si>
+  <si>
+    <t>cfg_wdrv_port</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_wdrv_port=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Локальный port UDP вывода Wave потока с ADC.</t>
+  </si>
+  <si>
+    <t>=0 – отключен</t>
+  </si>
+  <si>
+    <t>cfg_overclk</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_overclk=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Переключение CLK CPU на 160 MHz. =1 да, =0 нет</t>
+  </si>
+  <si>
+    <t>cfg_pinclr</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_pinclr=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Включен сброс настроек WiFi при старте по пину RX. =1 да, =0 нет</t>
+  </si>
+  <si>
+    <t>cfg_debug</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_debug=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Включен вывод отладки в порт UART1.  =1 да, =0 нет</t>
+  </si>
+  <si>
+    <t>cfg_netbios</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_netbios=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Включен NETBIOS.  =1 да, =0 нет</t>
+  </si>
+  <si>
+    <t>cfg_sntp</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_sntp=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Включен SNTP.  =1 да, =0 нет</t>
+  </si>
+  <si>
+    <t>cfg_cdns</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_cdns=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Включен “Capture portal”.  =1 да, =0 нет</t>
+  </si>
+  <si>
+    <r>
+      <t>cfg_save=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Сохранить конфигурацию.</t>
+  </si>
+  <si>
+    <t>=1 сразу, =2 по закрытию соединения, другие значения – не сохранять.</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_baud</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_baud=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Baud rate UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>от 300 до 10000000.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bits=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Кол-во бит данных для UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =0 – 5 бит, …=3 – 8 бит.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_parity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_parity=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enable Parity UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  =0 – disable, =1 – enable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_even</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_even=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Parity UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  =0 – even, =1 – odd.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_stop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_stop=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Кол-во стоп бит для UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =1 – 1 бит, =2 – 1.5 бита, =3 – 2 бита.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_loopback</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_loopback=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enable loopback UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_swap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_swap=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enable swap pin RX&lt;-&gt;CTS, TX&lt;-&gt;RTS у UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_flow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_flow=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enable flow control UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_rts_inv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_rts_inv=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Инверсия RTS на UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_cts_inv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_cts_inv=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Инверсия CTS на UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_rxd_inv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_rxd_inv=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Инверсия RXD на UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_txd_inv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_txd_inv=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Инверсия TXD на UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dtr_inv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dtr_inv=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Инверсия DTR на UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dsr_inv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dsr_inv=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Инверсия DSR на UART</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_save=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Сохранить конфигурацию UARTx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Где </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  бит0 =1 - UART0, бит1 =1 – UART1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart_read=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>Прочитать сохраненную конфигурацию UARTx и настроить по ней UARTx.</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =0 - вечное</t>
+    </r>
+  </si>
+  <si>
+    <t>Таймаут до закрытия соединения Web сервера если нет принятых данных, в секундах.</t>
+  </si>
+  <si>
+    <t>Таймаут до закрытия соединения TCP2UART если нет принятых данных, в секундах.</t>
+  </si>
+  <si>
+    <t>Таймаут до закрытия соединения Modbus TCP если нет принятых данных, в секундах.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выводит текстовый файл в dword виде с запросом к web.cgi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- начальный адрес, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> кол-во, кратное 16. Числа в dec или hex формате. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выводит текстовый строчный файл hex дампа в байтовом виде с запросом к web.cgi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">addr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- начальный адрес, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF215968"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> кол-во, кратное 16. Числа в dec или hex формате. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -2958,40 +5753,13 @@
   </si>
   <si>
     <r>
-      <t>Вывод входного состояния GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 0 или 1.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3014,277 +5782,13 @@
   </si>
   <si>
     <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_out=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Чтение/установка для выходного состояния GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =0 - вывод “0”, =1 - вывод “1”, =3 - инверсия.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_clr=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Чтение/установка в “0” выхода GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 0 или 1.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_set=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Чтение/установка в “1”  выхода GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 0 или 1.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3307,233 +5811,13 @@
   </si>
   <si>
     <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dir=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Чтение/установка направления работы GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =1 - выход, =0 - вход.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_ena=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>any</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Установка направления работы GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> как выхода</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dis=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>any</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Установка направления работы GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> как входа</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3556,97 +5840,13 @@
   </si>
   <si>
     <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_fun=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Чтение/установка функции GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 0..5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3669,56 +5869,13 @@
   </si>
   <si>
     <r>
-      <t>Чтение pull битов у GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =0 - нет, =2 - pullup, =1 pulldown (не работает)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3741,97 +5898,13 @@
   </si>
   <si>
     <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_opd=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Чтение/установка “открытий коллектор” GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =0 - откл, =1 вкл, =3 - переключить.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3854,81 +5927,13 @@
   </si>
   <si>
     <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_pu=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Чтение/установка pullup у GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3951,2578 +5956,408 @@
   </si>
   <si>
     <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_pd=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Чтение/установка pulldown у GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">n </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(не работает в чипе).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_io=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>any</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Установить функцию GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> как i/o port.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_def=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>any</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Установить функцию GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> в состояние по умолчанию для SDK.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_sgs=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duty</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Подключить вывод GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">n </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>к sigma-delta 312кГц</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>duty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – параметр duty от 0 до 255. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_sgс=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>any</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Отключить вывод GPIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">n </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>от sigma-delta 312кГц</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gpio_sgn=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duty</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Задать новый параметр duty для</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sigma-delta 312кГц</t>
-    </r>
-  </si>
-  <si>
-    <t>Конфигурация</t>
-  </si>
-  <si>
-    <t>cfg_web_port</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_web_port=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Локальный port Web сервера. =0 – отключен</t>
-  </si>
-  <si>
-    <t>cfg_web_twrec</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_web_twrec=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>cfg_web_twcls</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_web_twcls=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Таймаут до закрытия соединения Web сервера после последних принятых данных, в секундах.</t>
-  </si>
-  <si>
-    <t>cfg_web_twd</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_web_twd=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Разрешение удаления TIME_WAIT pcb</t>
-  </si>
-  <si>
-    <t>cfg_tcp_tcrec</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_tcp_tcrec=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Пауза до следующего запроса для TCP клиента, в микросекундах.</t>
-  </si>
-  <si>
-    <t>cfg_tcp_port</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_tcp_port=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Port TCP2UART. =0 – отключен</t>
-  </si>
-  <si>
-    <t>cfg_tcp_twrec</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_tcp_twrec=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>cfg_tcp_twcls</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_tcp_twcls=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Таймаут до закрытия соединения TCP2UART после последних принятых данных, в секундах.</t>
-  </si>
-  <si>
-    <t>cfg_tcp_reop</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_tcp_reop=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Разрешено открытие новым соединением TCP2UART с закрытием старого. =1 да, =0 нет</t>
-  </si>
-  <si>
-    <t>cfg_tcp_url</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_tcp_url=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ip</t>
-    </r>
-  </si>
-  <si>
-    <t>Задание внешнего ip. Если поле пусто или “none”, или “127.0.0.1”, или некорректен ввод ip  – то TCP2UART является сервером. Иначе – клиентом.</t>
-  </si>
-  <si>
-    <t>cfg_mdb_port</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_mdb_port=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Port Modbus TCP. =0 – отключен</t>
-  </si>
-  <si>
-    <t>cfg_mdb_twrec</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_mdb_twrec=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>cfg_mdb_twcls</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_mdb_twcls=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Таймаут до закрытия соединения Modbus TCP после последних принятых данных, в секундах.</t>
-  </si>
-  <si>
-    <t>cfg_mdb_reop</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_mdb_reop=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Разрешено открытие новым соединением Modbus TCP с закрытием старого. =1 да, =0 нет</t>
-  </si>
-  <si>
-    <t>cfg_udp</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_udp=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Локальный port тестового UDP. =0 – отключен</t>
-  </si>
-  <si>
-    <t>cfg_wdrv_port</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_wdrv_port=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Локальный port UDP вывода Wave потока с ADC.</t>
-  </si>
-  <si>
-    <t>=0 – отключен</t>
-  </si>
-  <si>
-    <t>cfg_overclk</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_overclk=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Переключение CLK CPU на 160 MHz. =1 да, =0 нет</t>
-  </si>
-  <si>
-    <t>cfg_pinclr</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_pinclr=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Включен сброс настроек WiFi при старте по пину RX. =1 да, =0 нет</t>
-  </si>
-  <si>
-    <t>cfg_debug</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_debug=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Включен вывод отладки в порт UART1.  =1 да, =0 нет</t>
-  </si>
-  <si>
-    <t>cfg_netbios</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_netbios=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Включен NETBIOS.  =1 да, =0 нет</t>
-  </si>
-  <si>
-    <t>cfg_sntp</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_sntp=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Включен SNTP.  =1 да, =0 нет</t>
-  </si>
-  <si>
-    <t>cfg_cdns</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_cdns=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Включен “Capture portal”.  =1 да, =0 нет</t>
-  </si>
-  <si>
-    <r>
-      <t>cfg_save=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Сохранить конфигурацию.</t>
-  </si>
-  <si>
-    <t>=1 сразу, =2 по закрытию соединения, другие значения – не сохранять.</t>
-  </si>
-  <si>
-    <t>UART</t>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_baud</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_baud=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Baud rate UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">x </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>от 300 до 10000000.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bits</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bits=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Кол-во бит данных для UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =0 – 5 бит, …=3 – 8 бит.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_parity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_parity=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Enable Parity UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  =0 – disable, =1 – enable.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_even</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_even=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Parity UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  =0 – even, =1 – odd.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_stop</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_stop=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Кол-во стоп бит для UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =1 – 1 бит, =2 – 1.5 бита, =3 – 2 бита.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_loopback</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_loopback=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Enable loopback UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_swap</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_swap=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Enable swap pin RX&lt;-&gt;CTS, TX&lt;-&gt;RTS у UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_flow</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_flow=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Enable flow control UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_rts_inv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_rts_inv=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Инверсия RTS на UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_cts_inv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_cts_inv=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Инверсия CTS на UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_rxd_inv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_rxd_inv=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Инверсия RXD на UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_txd_inv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_txd_inv=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Инверсия TXD на UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dtr_inv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dtr_inv=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Инверсия DTR на UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dsr_inv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dsr_inv=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Инверсия DSR на UART</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_save=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Сохранить конфигурацию UARTx</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Где </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  бит0 =1 - UART0, бит1 =1 – UART1.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart_read=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>Прочитать сохраненную конфигурацию UARTx и настроить по ней UARTx.</t>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =0 - вечное</t>
-    </r>
-  </si>
-  <si>
-    <t>Таймаут до закрытия соединения Web сервера если нет принятых данных, в секундах.</t>
-  </si>
-  <si>
-    <t>Таймаут до закрытия соединения TCP2UART если нет принятых данных, в секундах.</t>
-  </si>
-  <si>
-    <t>Таймаут до закрытия соединения Modbus TCP если нет принятых данных, в секундах.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Выводит текстовый файл в dword виде с запросом к web.cgi. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- начальный адрес, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> кол-во, кратное 16. Числа в dec или hex формате. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Выводит текстовый строчный файл hex дампа в байтовом виде с запросом к web.cgi. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">addr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- начальный адрес, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF215968"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> кол-во, кратное 16. Числа в dec или hex формате. </t>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_out=x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_clr=x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_set=x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dir=x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ena=any</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dis=any</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_fun=fun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_opd=x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_pu=x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_pd=x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_io=any</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_def=any</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_sgs=duty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gpio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_sgс=any</t>
     </r>
   </si>
 </sst>
@@ -6530,7 +6365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6626,6 +6461,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF215968"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -6808,12 +6652,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6823,7 +6661,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6835,10 +6682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7167,34 +7011,34 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -7219,11 +7063,11 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
@@ -7253,33 +7097,33 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
@@ -7339,11 +7183,11 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -7463,17 +7307,17 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="5" t="s">
         <v>64</v>
       </c>
@@ -7499,8 +7343,8 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -7508,8 +7352,8 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="5" t="s">
         <v>72</v>
       </c>
@@ -7524,17 +7368,17 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="23"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="5" t="s">
         <v>77</v>
       </c>
@@ -7562,10 +7406,10 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -7573,8 +7417,8 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="7" t="s">
         <v>87</v>
       </c>
@@ -7607,10 +7451,10 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="17" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -7618,8 +7462,8 @@
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="7" t="s">
         <v>97</v>
       </c>
@@ -7643,10 +7487,10 @@
       </c>
     </row>
     <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -7654,8 +7498,8 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="7" t="s">
         <v>105</v>
       </c>
@@ -7670,10 +7514,10 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="17" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -7681,18 +7525,18 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="63" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -7704,11 +7548,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
@@ -7824,10 +7668,10 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -7835,17 +7679,17 @@
       </c>
     </row>
     <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="17" t="s">
         <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -7853,8 +7697,8 @@
       </c>
     </row>
     <row r="79" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="5" t="s">
         <v>152</v>
       </c>
@@ -7878,11 +7722,11 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="18"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
     </row>
     <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
@@ -8035,11 +7879,11 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="18"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
     </row>
     <row r="98" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
@@ -8185,11 +8029,11 @@
       </c>
     </row>
     <row r="111" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C111" s="17"/>
-      <c r="D111" s="18"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
     </row>
     <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
@@ -8210,11 +8054,11 @@
       </c>
     </row>
     <row r="114" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C114" s="17"/>
-      <c r="D114" s="18"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
     </row>
     <row r="115" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
@@ -8235,11 +8079,11 @@
       </c>
     </row>
     <row r="117" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="17"/>
-      <c r="D117" s="18"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="16"/>
     </row>
     <row r="118" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
@@ -8260,65 +8104,65 @@
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C120" s="14"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
       <c r="D121" s="9" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="14"/>
+      <c r="C122" s="17"/>
       <c r="D122" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="123" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
       <c r="D123" s="9" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C124" s="14"/>
+      <c r="C124" s="17"/>
       <c r="D124" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
       <c r="D125" s="9" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C126" s="14"/>
+      <c r="C126" s="17"/>
       <c r="D126" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="127" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
       <c r="D127" s="9" t="s">
         <v>243</v>
       </c>
@@ -8342,11 +8186,11 @@
       </c>
     </row>
     <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="18"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
     </row>
     <row r="131" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
@@ -8385,11 +8229,11 @@
       </c>
     </row>
     <row r="135" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="21"/>
-      <c r="D135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="23"/>
     </row>
     <row r="136" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
@@ -8452,11 +8296,11 @@
       </c>
     </row>
     <row r="142" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="18"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="16"/>
     </row>
     <row r="143" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
@@ -8468,17 +8312,17 @@
       </c>
     </row>
     <row r="144" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C144" s="17"/>
-      <c r="D144" s="18"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
     </row>
     <row r="145" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="17" t="s">
         <v>284</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -8486,17 +8330,17 @@
       </c>
     </row>
     <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
       <c r="D146" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="147" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="17" t="s">
         <v>288</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -8504,17 +8348,17 @@
       </c>
     </row>
     <row r="148" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="18"/>
       <c r="D148" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="149" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="17" t="s">
         <v>291</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -8522,15 +8366,15 @@
       </c>
     </row>
     <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
       <c r="D150" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="14"/>
-      <c r="C151" s="14" t="s">
+      <c r="B151" s="17"/>
+      <c r="C151" s="17" t="s">
         <v>293</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -8538,22 +8382,22 @@
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
       <c r="D152" s="10" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="153" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
       <c r="D153" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="14"/>
-      <c r="C154" s="14" t="s">
+      <c r="B154" s="17"/>
+      <c r="C154" s="17" t="s">
         <v>297</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -8561,976 +8405,976 @@
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
       <c r="D155" s="10" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="15"/>
-      <c r="C156" s="15"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
       <c r="D156" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C157" s="17"/>
+      <c r="D157" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C157" s="14"/>
-      <c r="D157" s="1" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
       <c r="D158" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C159" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="10" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="15"/>
-      <c r="C161" s="15"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
       <c r="D161" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="14"/>
-      <c r="C162" s="14" t="s">
-        <v>305</v>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17" t="s">
+        <v>461</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="24"/>
       <c r="D163" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
       <c r="D164" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="14"/>
-      <c r="C165" s="14" t="s">
-        <v>308</v>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17" t="s">
+        <v>462</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="24"/>
       <c r="D166" s="10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
       <c r="D167" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>312</v>
+      <c r="B168" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
       <c r="D169" s="10" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="15"/>
-      <c r="C170" s="15"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
       <c r="D170" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="14"/>
-      <c r="C171" s="14" t="s">
-        <v>315</v>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17" t="s">
+        <v>464</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="15"/>
-      <c r="C172" s="15"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
       <c r="D172" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="14"/>
-      <c r="C173" s="14" t="s">
-        <v>317</v>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17" t="s">
+        <v>465</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="174" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="15"/>
-      <c r="C174" s="15"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
       <c r="D174" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C175" s="14" t="s">
-        <v>320</v>
+      <c r="B175" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>466</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="24"/>
       <c r="D176" s="10" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="177" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="15"/>
-      <c r="C177" s="15"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
       <c r="D177" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C178" s="14"/>
+      <c r="B178" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C178" s="17"/>
       <c r="D178" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="24"/>
       <c r="D179" s="10" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="15"/>
-      <c r="C180" s="15"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
       <c r="D180" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="C181" s="14" t="s">
-        <v>327</v>
+      <c r="B181" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>467</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
       <c r="D182" s="10" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="18"/>
       <c r="D183" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C184" s="14" t="s">
-        <v>331</v>
+      <c r="B184" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="24"/>
       <c r="D185" s="10" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="186" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="15"/>
-      <c r="C186" s="15"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
       <c r="D186" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="C187" s="14" t="s">
-        <v>334</v>
+      <c r="B187" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
       <c r="D188" s="10" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="15"/>
-      <c r="C189" s="15"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
       <c r="D189" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="14"/>
-      <c r="C190" s="14" t="s">
-        <v>336</v>
+      <c r="B190" s="17"/>
+      <c r="C190" s="17" t="s">
+        <v>470</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="15"/>
-      <c r="C191" s="15"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
       <c r="D191" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="14"/>
-      <c r="C192" s="14" t="s">
-        <v>338</v>
+      <c r="B192" s="17"/>
+      <c r="C192" s="17" t="s">
+        <v>471</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="15"/>
-      <c r="C193" s="15"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
       <c r="D193" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="14"/>
-      <c r="C194" s="14" t="s">
-        <v>340</v>
+      <c r="B194" s="17"/>
+      <c r="C194" s="17" t="s">
+        <v>472</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
       <c r="D195" s="10" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="196" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="15"/>
-      <c r="C196" s="15"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
       <c r="D196" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="14"/>
-      <c r="C197" s="14" t="s">
-        <v>343</v>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17" t="s">
+        <v>473</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="15"/>
-      <c r="C198" s="15"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
       <c r="D198" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="14"/>
-      <c r="C199" s="14" t="s">
-        <v>345</v>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="15"/>
-      <c r="C200" s="15"/>
+      <c r="B200" s="18"/>
+      <c r="C200" s="18"/>
       <c r="D200" s="9" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="C201" s="17"/>
-      <c r="D201" s="18"/>
+      <c r="B201" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C201" s="15"/>
+      <c r="D201" s="16"/>
     </row>
     <row r="202" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B203" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C203" s="14" t="s">
-        <v>352</v>
+      <c r="B203" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>330</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="15"/>
-      <c r="C204" s="15"/>
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
       <c r="D204" s="9" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="205" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B205" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C205" s="14" t="s">
-        <v>354</v>
+      <c r="B205" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>332</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="206" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="15"/>
-      <c r="C206" s="15"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
       <c r="D206" s="9" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="207" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="209" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B210" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C210" s="14" t="s">
-        <v>366</v>
+      <c r="B210" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="211" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="15"/>
-      <c r="C211" s="15"/>
+      <c r="B211" s="18"/>
+      <c r="C211" s="18"/>
       <c r="D211" s="9" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B212" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="C212" s="14" t="s">
-        <v>368</v>
+      <c r="B212" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="213" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="15"/>
-      <c r="C213" s="15"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
       <c r="D213" s="9" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="214" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="215" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
     </row>
     <row r="216" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
     </row>
     <row r="217" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B217" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C217" s="14" t="s">
-        <v>380</v>
+      <c r="B217" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="218" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="15"/>
-      <c r="C218" s="15"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
       <c r="D218" s="9" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B219" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="C219" s="14" t="s">
-        <v>382</v>
+      <c r="B219" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>360</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="15"/>
-      <c r="C220" s="15"/>
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
       <c r="D220" s="9" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="222" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B223" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C223" s="14" t="s">
-        <v>391</v>
+      <c r="B223" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>369</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="224" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="15"/>
-      <c r="C224" s="15"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
       <c r="D224" s="5" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
     </row>
     <row r="227" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="229" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" s="17"/>
+      <c r="C231" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C233" s="15"/>
+      <c r="D233" s="16"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="18"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C230" s="4" t="s">
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="C242" s="17" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B231" s="14"/>
-      <c r="C231" s="14" t="s">
+      <c r="D242" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D231" s="1" t="s">
+    </row>
+    <row r="243" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="9" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="232" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="15"/>
-      <c r="C232" s="15"/>
-      <c r="D232" s="5" t="s">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="17" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="233" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="16" t="s">
+      <c r="C244" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="C233" s="17"/>
-      <c r="D233" s="18"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B234" s="14" t="s">
+      <c r="D244" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C234" s="14" t="s">
+    </row>
+    <row r="245" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="C246" s="17" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="235" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="15"/>
-      <c r="C235" s="15"/>
-      <c r="D235" s="9" t="s">
+      <c r="D246" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B236" s="14" t="s">
+    <row r="247" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="18"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="C236" s="14" t="s">
+      <c r="C248" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="237" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="15"/>
-      <c r="C237" s="15"/>
-      <c r="D237" s="9" t="s">
+    <row r="249" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="18"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="17" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B238" s="14" t="s">
+      <c r="C250" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C238" s="14" t="s">
+      <c r="D250" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D238" s="1" t="s">
+    </row>
+    <row r="251" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="18"/>
+      <c r="C251" s="18"/>
+      <c r="D251" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="17" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="239" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="15"/>
-      <c r="C239" s="15"/>
-      <c r="D239" s="9" t="s">
+      <c r="C252" s="17" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B240" s="14" t="s">
+      <c r="D252" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C240" s="14" t="s">
+    </row>
+    <row r="253" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="C254" s="17" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="15"/>
-      <c r="C241" s="15"/>
-      <c r="D241" s="9" t="s">
+      <c r="D254" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B242" s="14" t="s">
+    <row r="255" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="C242" s="14" t="s">
+      <c r="C256" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="15"/>
-      <c r="C243" s="15"/>
-      <c r="D243" s="9" t="s">
+    <row r="257" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="18"/>
+      <c r="C257" s="18"/>
+      <c r="D257" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="17" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B244" s="14" t="s">
+      <c r="C258" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C244" s="14" t="s">
+      <c r="D258" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D244" s="1" t="s">
+    </row>
+    <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="17" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="15"/>
-      <c r="C245" s="15"/>
-      <c r="D245" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B246" s="14" t="s">
+      <c r="C260" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="D260" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D246" s="1" t="s">
+    </row>
+    <row r="261" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="18"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="17"/>
+      <c r="C262" s="17" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="247" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="15"/>
-      <c r="C247" s="15"/>
-      <c r="D247" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B248" s="14" t="s">
+      <c r="D262" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C248" s="14" t="s">
+    </row>
+    <row r="263" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="18"/>
+      <c r="C263" s="18"/>
+      <c r="D263" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D248" s="1" t="s">
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="17"/>
+      <c r="C264" s="17" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="249" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="15"/>
-      <c r="C249" s="15"/>
-      <c r="D249" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="14" t="s">
+      <c r="D264" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C250" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="251" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="15"/>
-      <c r="C251" s="15"/>
-      <c r="D251" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="C252" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="15"/>
-      <c r="C253" s="15"/>
-      <c r="D253" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B254" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="C254" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="15"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B256" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="C256" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="15"/>
-      <c r="C257" s="15"/>
-      <c r="D257" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="C258" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="15"/>
-      <c r="C259" s="15"/>
-      <c r="D259" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="C260" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="15"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="14"/>
-      <c r="C262" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="263" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="15"/>
-      <c r="C263" s="15"/>
-      <c r="D263" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B264" s="14"/>
-      <c r="C264" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>467</v>
-      </c>
     </row>
     <row r="265" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="15"/>
-      <c r="C265" s="15"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="18"/>
       <c r="D265" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
@@ -9538,38 +9382,102 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
     <mergeCell ref="B124:B125"/>
     <mergeCell ref="C124:C125"/>
     <mergeCell ref="B126:B127"/>
@@ -9583,103 +9491,40 @@
     <mergeCell ref="C120:C121"/>
     <mergeCell ref="B122:B123"/>
     <mergeCell ref="C122:C123"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="B178:B180"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebVars.xlsx
+++ b/WebVars.xlsx
@@ -2503,9 +2503,6 @@
     </r>
   </si>
   <si>
-    <t>Sample Rate, 1…20000 Гц,  вывод в dec формате.</t>
-  </si>
-  <si>
     <t>wdrv_port</t>
   </si>
   <si>
@@ -2589,9 +2586,6 @@
     </r>
   </si>
   <si>
-    <t>Старт вывода, Sample Rate, 1…20000 Гц</t>
-  </si>
-  <si>
     <r>
       <t>Wdrv_stop=</t>
     </r>
@@ -6359,6 +6353,12 @@
       </rPr>
       <t xml:space="preserve"> применяется маска установки всех параметров, кроме записи во flash и перезагрузки.</t>
     </r>
+  </si>
+  <si>
+    <t>Старт вывода, Sample Rate, 1…192000 Гц</t>
+  </si>
+  <si>
+    <t>Sample Rate, 1…192000 Гц,  вывод в dec формате.</t>
   </si>
 </sst>
 </file>
@@ -6652,6 +6652,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6661,16 +6667,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6682,7 +6679,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7011,34 +7011,34 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -7063,11 +7063,11 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
@@ -7097,33 +7097,33 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
@@ -7183,11 +7183,11 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -7307,17 +7307,17 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="5" t="s">
         <v>64</v>
       </c>
@@ -7343,8 +7343,8 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -7352,8 +7352,8 @@
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="5" t="s">
         <v>72</v>
       </c>
@@ -7368,17 +7368,17 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
-      <c r="C45" s="20"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="5" t="s">
         <v>77</v>
       </c>
@@ -7406,10 +7406,10 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -7417,8 +7417,8 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="7" t="s">
         <v>87</v>
       </c>
@@ -7451,10 +7451,10 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -7462,8 +7462,8 @@
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="7" t="s">
         <v>97</v>
       </c>
@@ -7487,10 +7487,10 @@
       </c>
     </row>
     <row r="57" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -7498,8 +7498,8 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="7" t="s">
         <v>105</v>
       </c>
@@ -7514,10 +7514,10 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -7525,18 +7525,18 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -7548,11 +7548,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
@@ -7668,10 +7668,10 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -7679,17 +7679,17 @@
       </c>
     </row>
     <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="14" t="s">
         <v>149</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -7697,10 +7697,10 @@
       </c>
     </row>
     <row r="79" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7722,11 +7722,11 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
@@ -7879,11 +7879,11 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="18"/>
     </row>
     <row r="98" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
@@ -8029,11 +8029,11 @@
       </c>
     </row>
     <row r="111" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
@@ -8054,11 +8054,11 @@
       </c>
     </row>
     <row r="114" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="16"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="18"/>
     </row>
     <row r="115" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
@@ -8079,11 +8079,11 @@
       </c>
     </row>
     <row r="117" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="16"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="18"/>
     </row>
     <row r="118" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
@@ -8104,65 +8104,65 @@
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="17"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="17"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="123" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
       <c r="D123" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C124" s="17"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
       <c r="D125" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C126" s="17"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="127" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
       <c r="D127" s="9" t="s">
         <v>241</v>
       </c>
@@ -8186,11 +8186,11 @@
       </c>
     </row>
     <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="16"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="18"/>
     </row>
     <row r="131" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
@@ -8229,11 +8229,11 @@
       </c>
     </row>
     <row r="135" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C135" s="22"/>
-      <c r="D135" s="23"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="22"/>
     </row>
     <row r="136" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
@@ -8243,1138 +8243,1138 @@
         <v>263</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>264</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="D137" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="138" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="D138" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="3"/>
       <c r="C139" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="140" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
       <c r="C140" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>274</v>
+        <v>472</v>
       </c>
     </row>
     <row r="141" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="3"/>
       <c r="C141" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="16"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="18"/>
     </row>
     <row r="143" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" s="17"/>
+      <c r="D144" s="18"/>
+    </row>
+    <row r="145" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B145" s="14" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="14" t="s">
+      <c r="C145" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="16"/>
-    </row>
-    <row r="145" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B145" s="17" t="s">
+      <c r="D145" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C145" s="17" t="s">
+    </row>
+    <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D145" s="1" t="s">
+    </row>
+    <row r="147" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B147" s="14" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="7" t="s">
+      <c r="C147" s="14" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B147" s="17" t="s">
+      <c r="D147" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C147" s="17" t="s">
+    </row>
+    <row r="148" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B149" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="C149" s="14" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B149" s="17" t="s">
+      <c r="D149" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C149" s="17" t="s">
+    </row>
+    <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="17"/>
-      <c r="C151" s="17" t="s">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D151" s="1" t="s">
+    </row>
+    <row r="153" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="24"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="10" t="s">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="9" t="s">
+      <c r="D154" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="17"/>
-      <c r="C154" s="17" t="s">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D154" s="1" t="s">
+    </row>
+    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="24"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="17" t="s">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="14"/>
+      <c r="C162" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="C157" s="17"/>
-      <c r="D157" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="17" t="s">
+      <c r="C168" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="15"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="14"/>
+      <c r="C171" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="15"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C159" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="24"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="17"/>
-      <c r="C162" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="24"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="17"/>
-      <c r="C165" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="24"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="17" t="s">
+      <c r="C175" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C168" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="24"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="17"/>
-      <c r="C171" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="17"/>
-      <c r="C173" s="17" t="s">
+      <c r="C178" s="14"/>
+      <c r="D178" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C181" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="C175" s="17" t="s">
+      <c r="D181" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C184" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="24"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C178" s="17"/>
-      <c r="D178" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="24"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="10" t="s">
+      <c r="D184" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="17" t="s">
+    <row r="186" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C187" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="10" t="s">
+      <c r="D187" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="C184" s="17" t="s">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="14"/>
+      <c r="C190" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="24"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="C187" s="17" t="s">
+    <row r="191" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="14"/>
+      <c r="C192" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="24"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="17"/>
-      <c r="C190" s="17" t="s">
+    <row r="193" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="15"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="14"/>
+      <c r="C194" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="17"/>
-      <c r="C192" s="17" t="s">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="15"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="14"/>
+      <c r="C197" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D197" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="15"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="14"/>
+      <c r="C199" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="15"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="17"/>
-      <c r="C194" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="17"/>
-      <c r="C197" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="18"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="17"/>
-      <c r="C199" s="17" t="s">
+    <row r="201" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C201" s="15"/>
-      <c r="D201" s="16"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="18"/>
     </row>
     <row r="202" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C202" s="4" t="s">
+    </row>
+    <row r="203" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B203" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="C203" s="14" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="203" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B203" s="17" t="s">
+      <c r="D203" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="15"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B205" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C205" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B205" s="17" t="s">
+      <c r="D205" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C205" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="206" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15"/>
       <c r="D206" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="209" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D209" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C209" s="4" t="s">
+    </row>
+    <row r="210" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B210" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="C210" s="14" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="210" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B210" s="17" t="s">
+      <c r="D210" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="15"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B212" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C212" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B212" s="17" t="s">
+      <c r="D212" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C212" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="213" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="15"/>
       <c r="D213" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D214" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="215" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="216" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C216" s="4" t="s">
+    </row>
+    <row r="217" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B217" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="C217" s="14" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="217" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B217" s="17" t="s">
+      <c r="D217" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="15"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B219" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="C219" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B219" s="17" t="s">
+      <c r="D219" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C219" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="220" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="18"/>
-      <c r="C220" s="18"/>
+      <c r="B220" s="15"/>
+      <c r="C220" s="15"/>
       <c r="D220" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="222" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D222" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C222" s="4" t="s">
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="C223" s="14" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B223" s="17" t="s">
+      <c r="D223" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C223" s="17" t="s">
+    </row>
+    <row r="224" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="15"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="5" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="225" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D225" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="226" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D226" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="227" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D228" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="229" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D229" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D230" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C230" s="4" t="s">
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" s="14"/>
+      <c r="C231" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="D231" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B231" s="17"/>
-      <c r="C231" s="17" t="s">
+    <row r="232" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="15"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D231" s="1" t="s">
+    </row>
+    <row r="233" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="16" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="232" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
-      <c r="D232" s="5" t="s">
+      <c r="C233" s="17"/>
+      <c r="D233" s="18"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="14" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="233" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="14" t="s">
+      <c r="C234" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C233" s="15"/>
-      <c r="D233" s="16"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B234" s="17" t="s">
+      <c r="D234" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C234" s="17" t="s">
+    </row>
+    <row r="235" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="15"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D234" s="1" t="s">
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="14" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="235" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="18"/>
-      <c r="C235" s="18"/>
-      <c r="D235" s="9" t="s">
+      <c r="C236" s="14" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B236" s="17" t="s">
+      <c r="D236" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C236" s="17" t="s">
+    </row>
+    <row r="237" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="15"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D236" s="1" t="s">
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" s="14" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="237" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
-      <c r="D237" s="9" t="s">
+      <c r="C238" s="14" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B238" s="17" t="s">
+      <c r="D238" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C238" s="17" t="s">
+    </row>
+    <row r="239" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="15"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D238" s="1" t="s">
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="14" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="239" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
-      <c r="D239" s="9" t="s">
+      <c r="C240" s="14" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B240" s="17" t="s">
+      <c r="D240" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C240" s="17" t="s">
+    </row>
+    <row r="241" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="15"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="D240" s="1" t="s">
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="14" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="18"/>
-      <c r="C241" s="18"/>
-      <c r="D241" s="9" t="s">
+      <c r="C242" s="14" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B242" s="17" t="s">
+      <c r="D242" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C242" s="17" t="s">
+    </row>
+    <row r="243" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="15"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="D242" s="1" t="s">
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="14" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="18"/>
-      <c r="C243" s="18"/>
-      <c r="D243" s="9" t="s">
+      <c r="C244" s="14" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B244" s="17" t="s">
+      <c r="D244" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C244" s="17" t="s">
+    </row>
+    <row r="245" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="15"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="C246" s="14" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
-      <c r="D245" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B246" s="17" t="s">
+      <c r="D246" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C246" s="17" t="s">
+    </row>
+    <row r="247" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="15"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="C248" s="14" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="247" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="18"/>
-      <c r="C247" s="18"/>
-      <c r="D247" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B248" s="17" t="s">
+      <c r="D248" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C248" s="17" t="s">
+    </row>
+    <row r="249" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="15"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="C250" s="14" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="249" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="18"/>
-      <c r="C249" s="18"/>
-      <c r="D249" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="17" t="s">
+      <c r="D250" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C250" s="17" t="s">
+    </row>
+    <row r="251" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="15"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="C252" s="14" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="251" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="18"/>
-      <c r="C251" s="18"/>
-      <c r="D251" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="17" t="s">
+      <c r="D252" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C252" s="17" t="s">
+    </row>
+    <row r="253" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="15"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="C254" s="14" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="253" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B254" s="17" t="s">
+      <c r="D254" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C254" s="17" t="s">
+    </row>
+    <row r="255" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="15"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="C256" s="14" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="255" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B256" s="17" t="s">
+      <c r="D256" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C256" s="17" t="s">
+    </row>
+    <row r="257" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="15"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="C258" s="14" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="257" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="17" t="s">
+      <c r="D258" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C258" s="17" t="s">
+    </row>
+    <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="15"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="C260" s="14" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="18"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="17" t="s">
+      <c r="D260" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C260" s="17" t="s">
+    </row>
+    <row r="261" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="15"/>
+      <c r="C261" s="15"/>
+      <c r="D261" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="14"/>
+      <c r="C262" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="18"/>
-      <c r="C261" s="18"/>
-      <c r="D261" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="17"/>
-      <c r="C262" s="17" t="s">
+    <row r="263" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="15"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D262" s="1" t="s">
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="14"/>
+      <c r="C264" s="14" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="263" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="18"/>
-      <c r="C263" s="18"/>
-      <c r="D263" s="5" t="s">
+      <c r="D264" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B264" s="17"/>
-      <c r="C264" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
     <row r="265" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="18"/>
-      <c r="C265" s="18"/>
+      <c r="B265" s="15"/>
+      <c r="C265" s="15"/>
       <c r="D265" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
@@ -9382,28 +9382,112 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
     <mergeCell ref="B238:B239"/>
     <mergeCell ref="C238:C239"/>
     <mergeCell ref="B240:B241"/>
@@ -9417,112 +9501,28 @@
     <mergeCell ref="C234:C235"/>
     <mergeCell ref="B236:B237"/>
     <mergeCell ref="C236:C237"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="B178:B180"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
